--- a/DATA_goal/Junction_Flooding_64.xlsx
+++ b/DATA_goal/Junction_Flooding_64.xlsx
@@ -449,7 +449,7 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
@@ -655,103 +655,103 @@
         <v>41496.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.85</v>
+        <v>1.59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>33.76</v>
+        <v>3.38</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.1</v>
+        <v>2.61</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>37.78</v>
+        <v>3.78</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>181.47</v>
+        <v>18.15</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>34.41</v>
+        <v>3.44</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.3</v>
+        <v>2.23</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.35</v>
+        <v>1.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.92</v>
+        <v>1.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>33.91</v>
+        <v>3.39</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41496.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.81</v>
+        <v>2.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>47.31</v>
+        <v>4.73</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38.07</v>
+        <v>3.81</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.08</v>
+        <v>1.71</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>64.38</v>
+        <v>6.44</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.41</v>
+        <v>2.64</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.97</v>
+        <v>1.7</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.95</v>
+        <v>1.99</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.13</v>
+        <v>2.41</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>252.49</v>
+        <v>25.25</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>47.72</v>
+        <v>4.77</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.76</v>
+        <v>3.18</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.55</v>
+        <v>1.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.95</v>
+        <v>0.29</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.71</v>
+        <v>3.17</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.89</v>
+        <v>1.99</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>58.83</v>
+        <v>5.88</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41496.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.35</v>
+        <v>0.33</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>47.68</v>
+        <v>4.77</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.25</v>
+        <v>0.32</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41496.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.7</v>
+        <v>1.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.95</v>
+        <v>3.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.84</v>
+        <v>2.58</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.31</v>
+        <v>4.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.28</v>
+        <v>1.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>167.77</v>
+        <v>16.78</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.07</v>
+        <v>3.21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.42</v>
+        <v>2.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.85</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.71</v>
+        <v>2.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.25</v>
+        <v>3.82</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41496.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16.05</v>
+        <v>1.6</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>47.22</v>
+        <v>4.72</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>38.57</v>
+        <v>3.86</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>64.91</v>
+        <v>6.49</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>26.29</v>
+        <v>2.63</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>17.29</v>
+        <v>1.73</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>18.95</v>
+        <v>1.89</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>20.05</v>
+        <v>2</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>24.19</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>251.34</v>
+        <v>25.13</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>47.5</v>
+        <v>4.75</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>31.94</v>
+        <v>3.19</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.75</v>
+        <v>1.67</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>31.83</v>
+        <v>3.18</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>19.91</v>
+        <v>1.99</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>59.05</v>
+        <v>5.91</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19.61</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41496.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH7" s="4" t="n">
         <v>0.5600000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>24.46</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>67.11</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>5.64</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41496.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.79</v>
-      </c>
       <c r="G8" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>20.18</v>
+        <v>2.02</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41496.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>30.72</v>
+        <v>3.07</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>25.09</v>
+        <v>2.51</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>38.84</v>
+        <v>3.88</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.25</v>
+        <v>1.12</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.55</v>
+        <v>0.35</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>160.89</v>
+        <v>16.09</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>30.75</v>
+        <v>3.07</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>20.67</v>
+        <v>2.07</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>19.3</v>
+        <v>1.93</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>34.95</v>
+        <v>3.49</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41496.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC10" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AD10" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_64.xlsx
+++ b/DATA_goal/Junction_Flooding_64.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41496.34027777778</v>
+        <v>40751.38194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.13</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.05</v>
+        <v>0.76</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.38</v>
+        <v>2.46</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.61</v>
+        <v>1.81</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.24</v>
+        <v>0.86</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.78</v>
+        <v>2.54</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.92</v>
+        <v>1.4</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K2" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>1.16</v>
-      </c>
       <c r="L2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.97</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.24</v>
+        <v>0.9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.72</v>
+        <v>1.22</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.15</v>
+        <v>12.99</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.44</v>
+        <v>2.49</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.83</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.23</v>
+        <v>1.57</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.13</v>
+        <v>0.82</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.93</v>
+        <v>1.41</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.74</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.79</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.39</v>
+        <v>2.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41496.34722222222</v>
+        <v>40751.38888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.18</v>
+        <v>1.66</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M3" s="4" t="n">
         <v>1.57</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.99</v>
-      </c>
       <c r="N3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.71</v>
+        <v>1.32</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.41</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>25.25</v>
+        <v>19.3</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.77</v>
+        <v>3.68</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.18</v>
+        <v>2.43</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.27</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.17</v>
+        <v>2.44</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.07</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.97</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.54</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.88</v>
+        <v>4.44</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.97</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41496.35416666666</v>
+        <v>40751.39583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L4" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.4</v>
-      </c>
       <c r="M4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.68</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.95</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.77</v>
+        <v>9.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="X4" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.17</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41496.36111111111</v>
+        <v>40751.40277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.47</v>
+        <v>0.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.59</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.19</v>
+        <v>1.77</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>2.58</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>4.23</v>
-      </c>
       <c r="I5" s="4" t="n">
-        <v>1.78</v>
+        <v>0.99</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.43</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.15</v>
+        <v>0.62</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.71</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.77</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.15</v>
+        <v>0.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.63</v>
+        <v>0.9</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.78</v>
+        <v>9</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.21</v>
+        <v>1.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.14</v>
+        <v>1.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.12</v>
+        <v>0.62</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.07</v>
+        <v>1.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.47</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.55</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.75</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.82</v>
+        <v>2.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.32</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.33</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41496.36805555555</v>
+        <v>40751.40971064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.17</v>
+        <v>6.62</v>
       </c>
       <c r="C6" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>1.6</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" s="4" t="n">
+      <c r="O6" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="S6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.37</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>25.13</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.75</v>
+        <v>14.76</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.57</v>
+        <v>4.86</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.19</v>
+        <v>9.75</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.67</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.9</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.18</v>
+        <v>10.36</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.39</v>
+        <v>4.29</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.23</v>
+        <v>3.89</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.44</v>
+        <v>4.55</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.99</v>
+        <v>6.16</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.91</v>
+        <v>19.67</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.88</v>
+        <v>2.65</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41496.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41496.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41496.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41496.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41496.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>19.89</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>43.26</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>35.52</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>24.08</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>18.39</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>22.18</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>229.57</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>43.39</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>29.28</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>27.83</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>50.45</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>17.96</v>
+        <v>6.07</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_64.xlsx
+++ b/DATA_goal/Junction_Flooding_64.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.38194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.46</v>
+        <v>24.62</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.44</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.99</v>
+        <v>129.95</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.49</v>
+        <v>24.89</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.38888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.62</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.65</v>
+        <v>36.5</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.9</v>
+        <v>28.95</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.95</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.86</v>
+        <v>48.6</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.66</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.51</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>192.96</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>36.77</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.44</v>
+        <v>44.42</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.39583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.78</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.92</v>
+        <v>29.18</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.99</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.57</v>
+        <v>95.7</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.9</v>
+        <v>19.05</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.5</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.68</v>
+        <v>26.83</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.40277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.4</v>
+        <v>14.04</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.58</v>
+        <v>25.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.95</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9</v>
+        <v>89.95</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.89</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.81</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.47</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.35</v>
+        <v>23.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_64.xlsx
+++ b/DATA_goal/Junction_Flooding_64.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.38194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.64</v>
+        <v>7.644</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>3.425</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.62</v>
+        <v>24.615</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.07</v>
+        <v>18.068</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.59</v>
+        <v>8.586</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.44</v>
+        <v>25.443</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.42</v>
+        <v>5.416</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.79</v>
+        <v>7.792</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.715</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.59</v>
+        <v>10.589</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.7</v>
+        <v>2.697</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.23</v>
+        <v>12.231</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.25</v>
+        <v>8.247999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.423</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.95</v>
+        <v>129.948</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.89</v>
+        <v>24.892</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.193</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.063</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.89</v>
+        <v>6.887</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.88</v>
+        <v>7.883</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.31</v>
+        <v>10.309</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.69</v>
+        <v>2.695</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.83</v>
+        <v>22.828</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.29</v>
+        <v>4.294</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.38888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.62</v>
+        <v>16.621</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.17</v>
+        <v>12.174</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.77</v>
+        <v>1.766</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.5</v>
+        <v>36.495</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.95</v>
+        <v>28.955</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.95</v>
+        <v>12.951</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.6</v>
+        <v>48.595</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.785</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>14.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.66</v>
+        <v>15.655</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.08</v>
+        <v>4.076</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.51</v>
+        <v>18.508</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.43</v>
+        <v>11.432</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.351</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.983</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>192.96</v>
+        <v>192.962</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>36.77</v>
+        <v>36.766</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.3</v>
+        <v>24.304</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.73</v>
+        <v>12.728</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.22</v>
+        <v>2.219</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.44</v>
+        <v>24.441</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.68</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.33</v>
+        <v>11.332</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.35</v>
+        <v>15.351</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.42</v>
+        <v>44.419</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.66</v>
+        <v>6.657</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.19</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="4">
@@ -863,100 +863,100 @@
         <v>40751.39583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.5</v>
+        <v>8.497</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>6.21</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.039</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.78</v>
+        <v>18.779</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.69</v>
+        <v>14.693</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.61</v>
+        <v>6.608</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.18</v>
+        <v>29.182</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.47</v>
+        <v>10.471</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.49</v>
+        <v>4.492</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.42</v>
+        <v>6.417</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.52</v>
+        <v>7.516</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>8.109999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.05</v>
+        <v>2.054</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.77</v>
+        <v>6.767</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.5</v>
+        <v>9.500999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>5.99</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.7</v>
+        <v>95.69499999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.05</v>
+        <v>19.049</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.25</v>
+        <v>6.247</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>12.5</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.51</v>
+        <v>6.512</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.22</v>
+        <v>1.216</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.52</v>
+        <v>5.517</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.04</v>
+        <v>5.035</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.89</v>
+        <v>5.885</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.9</v>
+        <v>7.898</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.83</v>
+        <v>26.828</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.37</v>
+        <v>3.371</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>7.81</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.40277777778</v>
+        <v>40751.4027662037</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>8.039999999999999</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>7.38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.40971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.79000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.67</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.07</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_64.xlsx
+++ b/DATA_goal/Junction_Flooding_64.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,106 +964,210 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.4027662037</v>
+        <v>40751.40277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>8.045</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>5.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.75</v>
+        <v>17.749</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.04</v>
+        <v>14.042</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.28</v>
+        <v>6.275</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.83</v>
+        <v>25.828</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.28</v>
+        <v>4.276</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>6.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.11</v>
+        <v>7.112</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>1.95</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.99</v>
+        <v>8.989000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.59</v>
+        <v>5.593</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.676</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.464</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.95</v>
+        <v>89.95099999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.89</v>
+        <v>17.894</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.9</v>
+        <v>5.899</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.81</v>
+        <v>11.807</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.19</v>
+        <v>6.186</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.089</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>12.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.72</v>
+        <v>4.722</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.53</v>
+        <v>5.528</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.47</v>
+        <v>7.473</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.49</v>
+        <v>23.492</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.22</v>
+        <v>3.216</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.38</v>
+        <v>7.376</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.40971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.07</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_64.xlsx
+++ b/DATA_goal/Junction_Flooding_64.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,210 +964,106 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.40277777778</v>
+        <v>40751.4027662037</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.045</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>5.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.749</v>
+        <v>17.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.042</v>
+        <v>14.04</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.275</v>
+        <v>6.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.828</v>
+        <v>25.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.888999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.276</v>
+        <v>4.28</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>6.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.112</v>
+        <v>7.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.652</v>
+        <v>7.65</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>1.95</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.391</v>
+        <v>6.39</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.989000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.593</v>
+        <v>5.59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.676</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.95099999999999</v>
+        <v>89.95</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.894</v>
+        <v>17.89</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.899</v>
+        <v>5.9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.807</v>
+        <v>11.81</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.186</v>
+        <v>6.19</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.089</v>
+        <v>1.09</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>12.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.211</v>
+        <v>5.21</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.722</v>
+        <v>4.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.528</v>
+        <v>5.53</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.473</v>
+        <v>7.47</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.492</v>
+        <v>23.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.216</v>
+        <v>3.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.376</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.40971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.79000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.67</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.07</v>
+        <v>7.38</v>
       </c>
     </row>
   </sheetData>
